--- a/testcases/test_data.xlsx
+++ b/testcases/test_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -79,17 +80,66 @@
   </si>
   <si>
     <t>自动化创建2</t>
+  </si>
+  <si>
+    <t>plan_name</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>product_path</t>
+  </si>
+  <si>
+    <t>扫描任务</t>
+  </si>
+  <si>
+    <t>方案验收</t>
+  </si>
+  <si>
+    <t>自动化创建A</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>指定制品扫描</t>
+  </si>
+  <si>
+    <t>demo-generic</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -698,9 +748,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1036,10 +1089,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1078,8 +1131,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1146,4 +1199,89 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="10" width="15.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="20.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>